--- a/geothermal data/geo.xlsx
+++ b/geothermal data/geo.xlsx
@@ -6147,11 +6147,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147462400"/>
-        <c:axId val="147498496"/>
+        <c:axId val="14696448"/>
+        <c:axId val="14697984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147462400"/>
+        <c:axId val="14696448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6162,12 +6162,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147498496"/>
+        <c:crossAx val="14697984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147498496"/>
+        <c:axId val="14697984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000"/>
@@ -6179,7 +6179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147462400"/>
+        <c:crossAx val="14696448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6491,7 +6491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6499,10 +6499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1002"/>
+  <dimension ref="A1:B1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B912" sqref="B912:B1002"/>
+    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
+      <selection activeCell="C1003" sqref="C1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9106,7 +9106,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <f t="shared" ref="B260:B323" si="9">B259-0.02*(A260-A259)</f>
+        <f t="shared" ref="B260:B312" si="9">B259-0.02*(A260-A259)</f>
         <v>312.99000000000467</v>
       </c>
     </row>
@@ -10926,7 +10926,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <f t="shared" ref="B442:B505" si="14">B441-0.012*(A442-A441)</f>
+        <f t="shared" ref="B442:B461" si="14">B441-0.012*(A442-A441)</f>
         <v>310.39000000000556</v>
       </c>
     </row>
@@ -12416,7 +12416,7 @@
         <v>589</v>
       </c>
       <c r="B591">
-        <f t="shared" ref="B591:B654" si="20">B590-0.022*(A591-A590)</f>
+        <f t="shared" ref="B591:B598" si="20">B590-0.022*(A591-A590)</f>
         <v>307.30200000000667</v>
       </c>
     </row>
@@ -14426,7 +14426,7 @@
         <v>790</v>
       </c>
       <c r="B792">
-        <f t="shared" ref="B792:B855" si="27">B791-0.018*(A792-A791)</f>
+        <f t="shared" ref="B792:B837" si="27">B791-0.018*(A792-A791)</f>
         <v>303.65600000001211</v>
       </c>
     </row>
@@ -15536,7 +15536,7 @@
         <v>901</v>
       </c>
       <c r="B903">
-        <f t="shared" ref="B903:B966" si="31">B902-0.012*(A903-A902)</f>
+        <f t="shared" ref="B903:B911" si="31">B902-0.012*(A903-A902)</f>
         <v>302.05400000001333</v>
       </c>
     </row>
@@ -16276,7 +16276,7 @@
         <v>975</v>
       </c>
       <c r="B977">
-        <f t="shared" ref="B977:B1002" si="34">B976-0.022*(A977-A976)</f>
+        <f t="shared" ref="B977:B1003" si="34">B976-0.022*(A977-A976)</f>
         <v>300.5060000000139</v>
       </c>
     </row>
@@ -16528,6 +16528,15 @@
       <c r="B1002">
         <f t="shared" si="34"/>
         <v>299.95600000001411</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1003">
+        <v>1001</v>
+      </c>
+      <c r="B1003">
+        <f t="shared" si="34"/>
+        <v>299.93400000001412</v>
       </c>
     </row>
   </sheetData>
